--- a/КПД.xlsx
+++ b/КПД.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
